--- a/xlsx/西班牙帝国_intext.xlsx
+++ b/xlsx/西班牙帝国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1021">
   <si>
     <t>西班牙帝国</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>葡萄牙帝國</t>
+    <t>葡萄牙帝国</t>
   </si>
   <si>
     <t>政策_政策_加州_西班牙帝国</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%91%A1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>西葡帝國</t>
+    <t>西葡帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%BE%97%E5%8B%92%E6%94%AF%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>烏得勒支和約</t>
+    <t>乌得勒支和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E5%B8%9D%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>最大帝國列表</t>
+    <t>最大帝国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%B8%8D%E8%90%BD%E5%B8%9D%E5%9B%BD</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E7%89%B9%E5%85%8B%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>阿茲特克文明</t>
+    <t>阿兹特克文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>印加帝國</t>
+    <t>印加帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E9%9B%85%E6%96%87%E6%98%8E</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>西班牙海軍</t>
+    <t>西班牙海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%A4%A7%E6%96%B9%E9%99%A3</t>
   </si>
   <si>
-    <t>西班牙大方陣</t>
+    <t>西班牙大方阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -197,9 +197,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>葡萄牙帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
   </si>
   <si>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B3%95</t>
@@ -233,13 +230,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>現代性</t>
+    <t>现代性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>薩拉曼卡學派</t>
+    <t>萨拉曼卡学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
@@ -263,7 +260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%8E%8B%E5%9B%BD</t>
@@ -329,19 +326,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
   </si>
   <si>
-    <t>美西战争</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E9%9D%9E%E6%B4%B2%E7%9A%84%E7%88%AD%E5%A5%AA</t>
   </si>
   <si>
-    <t>對非洲的爭奪</t>
+    <t>对非洲的争夺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
-    <t>西屬摩洛哥</t>
+    <t>西属摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%9E%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -353,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%92%92%E5%93%88%E6%8B%89</t>
   </si>
   <si>
-    <t>西屬撒哈拉</t>
+    <t>西属撒哈拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E4%B8%BB%E6%AC%8A%E5%9C%B0</t>
   </si>
   <si>
-    <t>西班牙主權地</t>
+    <t>西班牙主权地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%8E%86%E5%8F%B2</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%A4%B1%E5%9C%B0%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復失地運動</t>
+    <t>收复失地运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%8F%8C%E7%8E%8B</t>
@@ -563,49 +557,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>那不勒斯王國</t>
+    <t>那不勒斯王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>卡斯蒂利亞王國</t>
+    <t>卡斯蒂利亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B2%A2%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉貢王國</t>
+    <t>阿拉贡王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E6%8B%89%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>納瓦拉王國</t>
+    <t>纳瓦拉王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%B8%BB%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>共主邦聯</t>
+    <t>共主邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9E%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>伊比利亞聯盟</t>
+    <t>伊比利亚联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%89%AE%E7%AC%AC%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>勃艮第公國</t>
+    <t>勃艮第公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E5%9C%8B%E5%9C%9F%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>收復國土運動</t>
+    <t>收复国土运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9A%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -635,19 +629,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E9%87%8C%E5%85%8B%E4%B8%89%E4%B8%96_(%E5%8D%A1%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9E)</t>
   </si>
   <si>
-    <t>恩里克三世 (卡斯蒂利亞)</t>
+    <t>恩里克三世 (卡斯蒂利亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%9B%BC%E7%AC%AC</t>
   </si>
   <si>
-    <t>諾曼第</t>
+    <t>诺曼第</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E5%BE%B7%E8%B2%9D%E7%95%B6%E5%8F%A4</t>
   </si>
   <si>
-    <t>讓·德貝當古</t>
+    <t>让·德贝当古</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD_(%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E)</t>
   </si>
   <si>
-    <t>奧蘭 (阿爾及利亞)</t>
+    <t>奥兰 (阿尔及利亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF</t>
@@ -707,9 +701,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E8%B4%A1%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
-    <t>阿拉贡王国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -749,25 +740,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%90%8D</t>
   </si>
   <si>
-    <t>日本國名</t>
+    <t>日本国名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%A4%A7%E7%99%BC%E7%8F%BE</t>
   </si>
   <si>
-    <t>地理大發現</t>
+    <t>地理大发现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9D%B1</t>
   </si>
   <si>
-    <t>遠東</t>
+    <t>远东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>東印度群島</t>
+    <t>东印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%AE%97%E8%AF%8F%E4%B9%A6</t>
@@ -797,31 +788,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%B8%83%E9%9B%B7%E8%81%AF%E7%9B%9F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>康布雷聯盟戰爭</t>
+    <t>康布雷联盟战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD</t>
   </si>
   <si>
-    <t>米蘭</t>
+    <t>米兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%93%A6%E6%8B%89</t>
   </si>
   <si>
-    <t>納瓦拉</t>
+    <t>纳瓦拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%B8%95%E5%B0%BC%E5%A5%A7%E6%8B%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>伊斯帕尼奧拉島</t>
+    <t>伊斯帕尼奥拉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E9%BE%90%E5%A1%9E%C2%B7%E5%BE%B7%E8%90%8A%E6%98%82</t>
   </si>
   <si>
-    <t>胡安·龐塞·德萊昂</t>
+    <t>胡安·庞塞·德莱昂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -851,19 +842,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E9%80%A3%E7%9C%81</t>
   </si>
   <si>
-    <t>達連省</t>
+    <t>达连省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E5%9C%B0%E5%B3%BD</t>
   </si>
   <si>
-    <t>巴拿馬地峽</t>
+    <t>巴拿马地峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%8D%A1%E7%89%B9%E5%8D%A1%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>薩卡特卡斯州</t>
+    <t>萨卡特卡斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E6%A0%BC%E9%9D%A9%E5%91%BD</t>
@@ -917,9 +908,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E4%B8%8D%E8%90%BD%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>日不落帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
@@ -929,13 +917,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B6%AD%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞維利亞</t>
+    <t>塞维利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80</t>
   </si>
   <si>
-    <t>銀</t>
+    <t>银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%97%E7%B3%96</t>
@@ -959,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E7%B6%A2</t>
   </si>
   <si>
-    <t>絲綢</t>
+    <t>丝绸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -1031,25 +1019,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%9C%A8%E6%96%AF%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>沃木斯議會</t>
+    <t>沃木斯议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>馬丁·路德</t>
+    <t>马丁·路德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E4%B9%8B%E5%8A%AB_(1527%E5%B9%B4)</t>
   </si>
   <si>
-    <t>羅馬之劫 (1527年)</t>
+    <t>罗马之劫 (1527年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%95%99%E5%BB%B7</t>
   </si>
   <si>
-    <t>羅馬教廷</t>
+    <t>罗马教廷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E8%8A%B1</t>
@@ -1067,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%8D%97%C2%B7%E7%A7%91%E7%88%BE%E8%92%82%E6%96%AF</t>
   </si>
   <si>
-    <t>荷南·科爾蒂斯</t>
+    <t>荷南·科尔蒂斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -1085,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E6%96%AF%E5%85%8B%C2%B7%E7%9A%AE%E6%BE%A4%E6%B4%9B</t>
   </si>
   <si>
-    <t>法蘭西斯克·皮澤洛</t>
+    <t>法兰西斯克·皮泽洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>黃金國</t>
+    <t>黄金国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E7%B4%A2%E7%93%A6%E4%B8%80%E4%B8%96</t>
@@ -1133,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>強權</t>
+    <t>强权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%89%E4%B8%83%E4%B8%96</t>
@@ -1181,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E8%BF%AA%E5%8D%97%C2%B7%E9%BA%A5%E5%93%B2%E5%80%AB</t>
   </si>
   <si>
-    <t>斐迪南·麥哲倫</t>
+    <t>斐迪南·麦哲伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E7%90%83%E8%88%AA%E8%A1%8C</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%A0%BC%E6%8B%89%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>新格拉納達</t>
+    <t>新格拉纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -1217,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AB%BE%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>布宜諾斯艾利斯</t>
+    <t>布宜诺斯艾利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -1229,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%90%8A%E6%9B%BC%E4%B8%80%E4%B8%96</t>
   </si>
   <si>
-    <t>蘇萊曼一世</t>
+    <t>苏莱曼一世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%96%AF</t>
@@ -1259,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%A0%BC%E6%96%AF%E5%A0%A1%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>奧格斯堡和約</t>
+    <t>奥格斯堡和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E5%85%B0)</t>
@@ -1301,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A5%A7%E5%8F%A4%E6%96%AF%E4%B8%81_(%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖奧古斯丁 (佛羅里達州)</t>
+    <t>圣奥古斯丁 (佛罗里达州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
@@ -1343,13 +1331,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BC%E6%8B%89</t>
   </si>
   <si>
-    <t>馬尼拉</t>
+    <t>马尼拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E7%8F%AD%E9%99%80%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>勒班陀戰役</t>
+    <t>勒班陀战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E9%99%A2%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
@@ -1373,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%9A%84%E5%94%90%E8%83%A1%E5%AE%89</t>
   </si>
   <si>
-    <t>奧地利的唐胡安</t>
+    <t>奥地利的唐胡安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
@@ -1385,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>加爾文主義</t>
+    <t>加尔文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E7%93%A6%E5%85%AC%E7%88%B5</t>
@@ -1403,13 +1391,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>八十年戰爭</t>
+    <t>八十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>荷蘭共和國</t>
+    <t>荷兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%89%B9%E5%8D%AB%E6%99%AE</t>
@@ -1433,19 +1421,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E9%A0%93</t>
   </si>
   <si>
-    <t>萊頓</t>
+    <t>莱顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%A4%E5%A3%A9</t>
   </si>
   <si>
-    <t>堤壩</t>
+    <t>堤坝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%90%9B%E4%B8%BB%E5%88%97%E8%A1%A8</t>
@@ -1469,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E5%BE%92</t>
@@ -1493,13 +1481,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%95%B5%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>無敵艦隊</t>
+    <t>无敌舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>英西戰爭</t>
+    <t>英西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E7%BD%97%E5%B0%94</t>
@@ -1517,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%9B%A7%E7%93%A6%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>瓦盧瓦王朝</t>
+    <t>瓦卢瓦王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%E4%B8%89%E4%B8%96_(%E6%B3%95%E5%85%B0%E8%A5%BF)</t>
@@ -1541,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>國王</t>
+    <t>国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%BE%B7%E5%85%B0</t>
@@ -1559,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9B%BE%E4%BA%9A%E7%89%B9%E7%8E%8B%E6%9C%9D</t>
@@ -1577,19 +1565,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E9%A8%B7%E7%9A%84%E6%AF%9B%E9%87%8C%E8%8C%A8</t>
   </si>
   <si>
-    <t>拿騷的毛里茨</t>
+    <t>拿骚的毛里茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>布雷達</t>
+    <t>布雷达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B8%83%E7%BE%85%E8%A5%BF%E5%A5%A7%C2%B7%E6%96%AF%E7%9A%AE%E8%AB%BE%E6%8B%89</t>
   </si>
   <si>
-    <t>安布羅西奧·斯皮諾拉</t>
+    <t>安布罗西奥·斯皮诺拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%92%8C%E5%B9%B3</t>
@@ -1607,13 +1595,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E5%93%88%E5%B8%83%E6%96%AF%E5%A0%A1%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>奧地利哈布斯堡王朝</t>
+    <t>奥地利哈布斯堡王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC%E6%8B%8B%E7%AA%97%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>布拉格拋窗事件</t>
+    <t>布拉格抛窗事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD%E7%9A%87%E5%B8%9D%E5%88%97%E8%A1%A8</t>
@@ -1649,7 +1637,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%9F%83%E5%93%A5%C2%B7%E5%A7%94%E6%8B%89%E5%A3%AB%E5%BC%80%E5%85%B9</t>
@@ -1691,7 +1679,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%88%87%E8%8F%AF%E7%8E%8B%E4%BD%8D%E7%B9%BC%E6%89%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>曼切華王位繼承戰爭</t>
+    <t>曼切华王位继承战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E7%9C%81%E7%9D%A3</t>
@@ -1727,31 +1715,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E5%B2%91%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>呂岑戰役</t>
+    <t>吕岑战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%81%96%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>神聖羅馬帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E8%98%AD%E7%99%BB%E5%A0%A1</t>
   </si>
   <si>
-    <t>勃蘭登堡</t>
+    <t>勃兰登堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>薩克森</t>
+    <t>萨克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%85%8B%E9%AD%AF%E7%93%A6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>羅克魯瓦戰役</t>
+    <t>罗克鲁瓦战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%A1%9E%E7%95%99</t>
@@ -1811,7 +1796,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%9F%B3%E9%BB%A8</t>
   </si>
   <si>
-    <t>投石黨</t>
+    <t>投石党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E9%9B%B7%E7%BA%B3%E5%AD%90%E7%88%B5</t>
@@ -1829,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E8%A5%BF%E6%B0%B8</t>
   </si>
   <si>
-    <t>魯西永</t>
+    <t>鲁西永</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E7%93%A6</t>
@@ -1853,7 +1838,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E7%94%98%E8%96%A9%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>布拉甘薩王朝</t>
+    <t>布拉甘萨王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%98%82%E5%9B%9B%E4%B8%96</t>
@@ -1883,7 +1868,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E5%B0%BC%E5%BE%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>西屬尼德蘭</t>
+    <t>西属尼德兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%B4%9B%E6%96%AF%E4%BA%8C%E4%B8%96</t>
@@ -1907,13 +1892,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%8D%B7%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>法荷戰爭</t>
+    <t>法荷战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%90%8C%E7%9B%9F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>大同盟戰爭</t>
+    <t>大同盟战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E7%B4%A2%E7%93%A6%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E5%BE%B7%C2%B7%E8%92%99%E8%8E%AB%E6%9C%97%E8%A5%BF-%E5%B8%83%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8D%A2%E6%A3%AE%E5%A0%A1%E5%85%AC%E7%88%B5)</t>
@@ -1949,7 +1934,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>智能障礙</t>
+    <t>智能障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B3%E7%97%BF</t>
@@ -1967,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8E%8B%E4%BD%8D%E7%B9%BC%E6%89%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>西班牙王位繼承戰爭</t>
+    <t>西班牙王位继承战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%B3%A2%E6%97%81%E7%8E%8B%E6%9C%9D</t>
@@ -1979,9 +1964,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩丁島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
   </si>
   <si>
@@ -1991,13 +1973,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%BC%8F%E4%BE%9D</t>
   </si>
   <si>
-    <t>薩伏依</t>
+    <t>萨伏依</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%AB%BE%E5%8D%A1%E5%B3%B6</t>
   </si>
   <si>
-    <t>梅諾卡島</t>
+    <t>梅诺卡岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -2021,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%8D%97%C2%B7%E5%B8%83%E5%8B%9E%E5%B2%B1%E7%88%BE</t>
   </si>
   <si>
-    <t>費爾南·布勞岱爾</t>
+    <t>费尔南·布劳岱尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%95%86%E4%B8%BB%E4%B9%89</t>
@@ -2039,7 +2021,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E6%8B%89%E5%B0%BC%E4%BA%BA</t>
@@ -2051,7 +2033,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%A5%BF%E5%A5%A7%E5%85%A7%E6%96%AF%E7%9C%81</t>
   </si>
   <si>
-    <t>米西奧內斯省</t>
+    <t>米西奥内斯省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%9F%8E</t>
@@ -2063,7 +2045,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E9%A6%AC</t>
   </si>
   <si>
-    <t>利馬</t>
+    <t>利马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%8B%89%E5%85%8B%E9%B2%81%E6%96%AF</t>
@@ -2111,13 +2093,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%B8%95%E5%85%8B%C2%B7%E9%98%BF%E9%A6%AC%E9%AD%AF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>圖帕克·阿馬魯二世</t>
+    <t>图帕克·阿马鲁二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%BA%B8%E5%9C%8B</t>
   </si>
   <si>
-    <t>附庸國</t>
+    <t>附庸国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%B8%9D%E5%9B%BD</t>
@@ -2129,7 +2111,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%87%E5%AE%B6%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>英國皇家海軍</t>
+    <t>英国皇家海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%98%E4%BA%89</t>
@@ -2141,19 +2123,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94%E6%A5%AD</t>
   </si>
   <si>
-    <t>紡織業</t>
+    <t>纺织业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%BD%97%E9%82%A3</t>
@@ -2165,25 +2147,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%96%8B%E5%A4%8F%E9%83%A1</t>
   </si>
   <si>
-    <t>蘭開夏郡</t>
+    <t>兰开夏郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%A4%8D%E6%A5%AD</t>
   </si>
   <si>
-    <t>種植業</t>
+    <t>种植业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貴金屬</t>
+    <t>贵金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A1%E7%A4%A6%E6%A5%AD</t>
   </si>
   <si>
-    <t>採礦業</t>
+    <t>采矿业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
@@ -2201,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E9%87%91%E6%96%AF%E8%80%B3%E6%9C%B5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>詹金斯耳朵戰爭</t>
+    <t>詹金斯耳朵战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E8%B5%AB%E7%BA%B3_(%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A)</t>
@@ -2213,13 +2195,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴哈馬</t>
+    <t>巴哈马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>上加利福尼亞省</t>
+    <t>上加利福尼亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%9C%B0%E5%8C%BA</t>
@@ -2255,13 +2237,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>拿破崙戰爭</t>
+    <t>拿破崙战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E6%B3%95%E5%8A%A0%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>特拉法加海戰</t>
+    <t>特拉法加海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E5%A4%9A%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -2279,13 +2261,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E8%A5%BF%E5%AE%89%E7%B4%8D%E8%B3%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>路易西安納購地</t>
+    <t>路易西安纳购地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E9%A2%86%E5%9C%B0</t>
@@ -2315,7 +2297,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF-%E5%A5%A7%E5%B0%BC%E6%96%AF%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>亞當斯-奧尼斯條約</t>
+    <t>亚当斯-奥尼斯条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E5%93%A5%C2%B7%E6%88%88%E9%9B%85</t>
@@ -2345,7 +2327,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89</t>
@@ -2417,7 +2399,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -2429,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%A0%BC%E5%B0%94%C2%B7%E4%BC%8A%E8%BE%BE%E5%B0%94%E6%88%88%C2%B7%E4%BC%8A%C2%B7%E7%A7%91%E6%96%AF%E8%92%82%E5%88%A9%E4%BA%9A</t>
@@ -2447,7 +2429,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2465,7 +2447,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9E%E5%BA%AB%E5%96%AC%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>阿亞庫喬戰役</t>
+    <t>阿亚库乔战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%8E%E8%B4%9D%E6%8B%89%E4%BA%8C%E4%B8%96</t>
@@ -2477,15 +2459,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%AA%E8%BF%AA%E5%A5%A7%E4%B8%80%E4%B8%96_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>阿瑪迪奧一世 (西班牙)</t>
+    <t>阿玛迪奥一世 (西班牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%AC%AC%E4%B8%80%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>西班牙第一共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%B9%E7%B4%A2%E5%8D%81%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
@@ -2495,13 +2474,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族主義</t>
+    <t>民族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1898%E5%B9%B4%E5%B7%B4%E9%BB%8E%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>1898年巴黎條約</t>
+    <t>1898年巴黎条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -2513,7 +2492,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -2531,19 +2510,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E8%B5%AB%E6%8B%89</t>
   </si>
   <si>
-    <t>達赫拉</t>
+    <t>达赫拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>阿爾及爾</t>
+    <t>阿尔及尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E8%B3%88%E4%BA%9E</t>
   </si>
   <si>
-    <t>貝賈亞</t>
+    <t>贝贾亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%84%E9%BB%8E%E6%B3%A2%E9%87%8C</t>
@@ -2591,13 +2570,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E8%A5%BF%E9%9D%9E%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>柏林西非會議</t>
+    <t>柏林西非会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%93%88%E5%A4%9A%E7%88%BE%E8%A7%92</t>
   </si>
   <si>
-    <t>博哈多爾角</t>
+    <t>博哈多尔角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E5%B0%BC%E6%B2%B3</t>
@@ -2627,7 +2606,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%90%89%E7%88%BE</t>
   </si>
   <si>
-    <t>丹吉爾</t>
+    <t>丹吉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E4%BD%9B%E6%9C%97%E5%93%A5</t>
@@ -2645,7 +2624,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%B8%8C%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>維希法國</t>
+    <t>维希法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E9%95%BF%E4%BD%9C%E9%A3%8E</t>
@@ -2663,19 +2642,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>尼日利亞</t>
+    <t>尼日利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
-    <t>法屬摩洛哥</t>
+    <t>法属摩洛哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9_(%E7%A7%B0%E8%B0%93)</t>
@@ -2705,7 +2684,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>西班牙國會</t>
+    <t>西班牙国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E8%BF%9B%E5%86%9B</t>
@@ -2717,13 +2696,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E5%80%BC%E7%A8%85</t>
   </si>
   <si>
-    <t>增值稅</t>
+    <t>增值税</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%91%A9%E6%B4%9B%E5%93%A5</t>
@@ -2759,7 +2738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B1%AC%E6%9D%B1%E5%8D%B0%E5%BA%A6%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>西屬東印度群島</t>
+    <t>西属东印度群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%85%8B%E7%BD%97%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%81%94%E9%82%A6</t>
@@ -2795,9 +2774,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>西班牙歷史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%9D%9E%E6%AE%96%E6%B0%91%E5%8C%96</t>
   </si>
   <si>
@@ -2813,37 +2789,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>美屬菲律賓</t>
+    <t>美属菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%AD%B7%E5%BE%81%E8%B3%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>監護征賦制</t>
+    <t>监护征赋制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E7%8E%8B%E6%94%BF%E5%BE%A9%E5%8F%A4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙王政復古戰爭</t>
+    <t>葡萄牙王政复古战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>西西里王國</t>
+    <t>西西里王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E7%90%AA-%E5%BA%B7%E5%A0%A4</t>
   </si>
   <si>
-    <t>法蘭琪-康堤</t>
+    <t>法兰琪-康堤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%A5%BF%E7%8F%AD%E7%89%99%E7%B5%B1%E6%B2%BB%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>臺灣西班牙統治時期</t>
+    <t>台湾西班牙统治时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%82%E5%A4%9A%E9%9B%B7</t>
@@ -2861,31 +2837,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E8%AD%B0%E6%9C%83_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
   </si>
   <si>
-    <t>印度議會 (西班牙)</t>
+    <t>印度议会 (西班牙)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%9D%A3_(%E6%AE%96%E6%B0%91%E5%9C%B0%E5%AE%98%E8%81%B7)</t>
   </si>
   <si>
-    <t>總督 (殖民地官職)</t>
+    <t>总督 (殖民地官职)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%A0%BC%E6%8B%89%E7%B4%8D%E9%81%94%E5%89%AF%E7%8E%8B%E5%8D%80</t>
   </si>
   <si>
-    <t>新格拉納達副王區</t>
+    <t>新格拉纳达副王区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8B%89%E5%A1%94%E5%89%AF%E7%8E%8B%E5%8D%80</t>
   </si>
   <si>
-    <t>拉普拉塔副王區</t>
+    <t>拉普拉塔副王区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E5%AF%A9%E5%95%8F%E9%99%A2</t>
   </si>
   <si>
-    <t>皇家審問院</t>
+    <t>皇家审问院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E7%9D%A3%E5%BA%9C_(%E8%A5%BF%E7%8F%AD%E7%89%99)</t>
@@ -2897,13 +2873,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%A1%E6%96%AF%E6%8F%90%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>新卡斯提爾州</t>
+    <t>新卡斯提尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E9%8A%80%E5%9C%93</t>
   </si>
   <si>
-    <t>西班牙銀圓</t>
+    <t>西班牙银圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8F%8D%E5%AE%9D%E8%88%B9%E9%98%9F</t>
@@ -2915,7 +2891,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>西班牙艦隊</t>
+    <t>西班牙舰队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%C2%B7%E9%98%BF%E5%B0%94%E7%93%A6%E9%9B%B7%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E6%89%98%E8%8E%B1%E5%A4%9A%EF%BC%8C%E7%AC%AC%E4%B8%89%E4%BB%A3%E9%98%BF%E5%B0%94%E7%93%A6%E5%85%AC%E7%88%B5</t>
@@ -2933,7 +2909,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BE%E5%85%84%E5%BC%9F</t>
@@ -2981,25 +2957,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E5%8D%97%C2%B7%E7%A7%91%E7%88%BE%E7%89%B9%E6%96%AF</t>
   </si>
   <si>
-    <t>埃爾南·科爾特斯</t>
+    <t>埃尔南·科尔特斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%BE%B7%E7%BE%85%C2%B7%E5%BE%B7%C2%B7%E5%B7%B4%E7%88%BE%E8%BF%AA%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>佩德羅·德·巴爾迪維亞</t>
+    <t>佩德罗·德·巴尔迪维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%BE%B7%E7%BE%85%C2%B7%E5%BE%B7%C2%B7%E9%98%BF%E7%88%BE%E7%93%A6%E6%8B%89%E5%A4%9A</t>
   </si>
   <si>
-    <t>佩德羅·德·阿爾瓦拉多</t>
+    <t>佩德罗·德·阿尔瓦拉多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AD%E6%88%88%C2%B7%E5%BE%B7%C2%B7%E9%98%BF%E7%88%BE%E9%A6%AC%E6%A0%BC%E7%BE%85</t>
   </si>
   <si>
-    <t>迭戈·德·阿爾馬格羅</t>
+    <t>迭戈·德·阿尔马格罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%8F%B2%E6%B4%9B%C2%B7%E5%BE%B7%C2%B7%E7%BA%B3%E5%B0%94%E7%93%A6%E5%9F%83%E6%96%AF</t>
@@ -3029,7 +3005,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國殖民地</t>
+    <t>美国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9B%BD</t>
@@ -3047,7 +3023,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大英帝國</t>
+    <t>大英帝国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_possessions_of_Norway</t>
@@ -3059,19 +3035,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>比利時殖民地</t>
+    <t>比利时殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
   </si>
   <si>
-    <t>大英帝国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>德國殖民地</t>
+    <t>德国殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%B0%94%E5%85%B0%E7%9A%84%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -3089,7 +3062,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>丹麥殖民地</t>
+    <t>丹麦殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -4316,7 +4289,7 @@
         <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -4342,10 +4315,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -4371,10 +4344,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>5</v>
@@ -4400,10 +4373,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -4429,10 +4402,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -4458,10 +4431,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -4487,10 +4460,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -4516,10 +4489,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -4545,10 +4518,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -4574,10 +4547,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -4603,10 +4576,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4632,10 +4605,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -4661,10 +4634,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -4690,10 +4663,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4719,10 +4692,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4748,10 +4721,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>14</v>
@@ -4777,10 +4750,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -4806,10 +4779,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -4864,10 +4837,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -4893,10 +4866,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4922,10 +4895,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4951,10 +4924,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4980,10 +4953,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5009,10 +4982,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -5038,10 +5011,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -5067,10 +5040,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -5096,10 +5069,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>5</v>
@@ -5125,10 +5098,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -5154,10 +5127,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -5183,10 +5156,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -5212,10 +5185,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5241,10 +5214,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5270,10 +5243,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5299,10 +5272,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5328,10 +5301,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5357,10 +5330,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5386,10 +5359,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -5415,10 +5388,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5444,10 +5417,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -5473,10 +5446,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -5531,10 +5504,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5560,10 +5533,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5589,10 +5562,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5618,10 +5591,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" t="s">
         <v>93</v>
-      </c>
-      <c r="F75" t="s">
-        <v>94</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -5647,10 +5620,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5676,10 +5649,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5705,10 +5678,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5734,10 +5707,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5763,10 +5736,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5792,10 +5765,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5821,10 +5794,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5850,10 +5823,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5879,10 +5852,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5908,10 +5881,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5937,10 +5910,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5966,10 +5939,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5995,10 +5968,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -6024,10 +5997,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6053,10 +6026,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6082,10 +6055,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>15</v>
@@ -6111,10 +6084,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>11</v>
@@ -6140,10 +6113,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>13</v>
@@ -6169,10 +6142,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>7</v>
@@ -6198,10 +6171,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6227,10 +6200,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -6256,10 +6229,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -6285,10 +6258,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -6314,10 +6287,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6343,10 +6316,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6372,10 +6345,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6401,10 +6374,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6430,10 +6403,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6459,10 +6432,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>4</v>
@@ -6488,10 +6461,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>11</v>
@@ -6517,10 +6490,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -6546,10 +6519,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6575,10 +6548,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6604,10 +6577,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6633,10 +6606,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -6662,10 +6635,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6691,10 +6664,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6720,10 +6693,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6749,10 +6722,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>7</v>
@@ -6807,10 +6780,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>46</v>
@@ -6836,10 +6809,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -6865,10 +6838,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -6894,10 +6867,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
@@ -6923,10 +6896,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="G120" t="n">
         <v>7</v>
@@ -6952,10 +6925,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6981,10 +6954,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7010,10 +6983,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G123" t="n">
         <v>60</v>
@@ -7039,10 +7012,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -7068,10 +7041,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G125" t="n">
         <v>6</v>
@@ -7097,10 +7070,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F126" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -7126,10 +7099,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7155,10 +7128,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -7184,10 +7157,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F129" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7213,10 +7186,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -7242,10 +7215,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -7271,10 +7244,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7300,10 +7273,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7329,10 +7302,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7358,10 +7331,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>96</v>
+      </c>
+      <c r="F135" t="s">
         <v>97</v>
-      </c>
-      <c r="F135" t="s">
-        <v>98</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -7387,10 +7360,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7416,10 +7389,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F137" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -7445,10 +7418,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G138" t="n">
         <v>7</v>
@@ -7474,10 +7447,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>4</v>
@@ -7503,10 +7476,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7532,10 +7505,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -7561,10 +7534,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7590,10 +7563,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>7</v>
@@ -7619,10 +7592,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7648,10 +7621,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>10</v>
@@ -7677,10 +7650,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>4</v>
@@ -7706,10 +7679,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7735,10 +7708,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7764,10 +7737,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7793,10 +7766,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7822,10 +7795,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7851,10 +7824,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7880,10 +7853,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7909,10 +7882,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7938,10 +7911,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7967,10 +7940,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -8025,10 +7998,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G158" t="n">
         <v>5</v>
@@ -8054,10 +8027,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -8083,10 +8056,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -8112,10 +8085,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F161" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G161" t="n">
         <v>5</v>
@@ -8141,10 +8114,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F162" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G162" t="n">
         <v>24</v>
@@ -8170,10 +8143,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G163" t="n">
         <v>17</v>
@@ -8199,10 +8172,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8228,10 +8201,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F165" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8257,10 +8230,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F166" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8286,10 +8259,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F167" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8315,10 +8288,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F168" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G168" t="n">
         <v>18</v>
@@ -8344,10 +8317,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F169" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G169" t="n">
         <v>12</v>
@@ -8373,10 +8346,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F170" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -8402,10 +8375,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8431,10 +8404,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -8460,10 +8433,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -8489,10 +8462,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>78</v>
+      </c>
+      <c r="F174" t="s">
         <v>79</v>
-      </c>
-      <c r="F174" t="s">
-        <v>80</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -8518,10 +8491,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F175" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G175" t="n">
         <v>32</v>
@@ -8547,10 +8520,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F176" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G176" t="n">
         <v>17</v>
@@ -8576,10 +8549,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8605,10 +8578,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G178" t="n">
         <v>6</v>
@@ -8634,10 +8607,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F179" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -8663,10 +8636,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8692,10 +8665,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F181" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8721,10 +8694,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8750,10 +8723,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8779,10 +8752,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F184" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8866,10 +8839,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8895,10 +8868,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8924,10 +8897,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8953,10 +8926,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -8982,10 +8955,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9011,10 +8984,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9040,10 +9013,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9069,10 +9042,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G194" t="n">
         <v>5</v>
@@ -9098,10 +9071,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9127,10 +9100,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -9156,10 +9129,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -9185,10 +9158,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9214,10 +9187,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -9243,10 +9216,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -9272,10 +9245,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -9301,10 +9274,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G202" t="n">
         <v>4</v>
@@ -9330,10 +9303,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9359,10 +9332,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F204" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9388,10 +9361,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G205" t="n">
         <v>11</v>
@@ -9417,10 +9390,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9446,10 +9419,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9475,10 +9448,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9504,10 +9477,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9533,10 +9506,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9562,10 +9535,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9591,10 +9564,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9620,10 +9593,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9649,10 +9622,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G214" t="n">
         <v>5</v>
@@ -9678,10 +9651,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F215" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9707,10 +9680,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G216" t="n">
         <v>6</v>
@@ -9736,10 +9709,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>64</v>
+      </c>
+      <c r="F217" t="s">
         <v>65</v>
-      </c>
-      <c r="F217" t="s">
-        <v>66</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9765,10 +9738,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9794,10 +9767,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G219" t="n">
         <v>8</v>
@@ -9823,10 +9796,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9852,10 +9825,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G221" t="n">
         <v>9</v>
@@ -9881,10 +9854,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9910,10 +9883,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9939,10 +9912,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F224" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9968,10 +9941,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9997,10 +9970,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -10026,10 +9999,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10055,10 +10028,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -10084,10 +10057,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -10113,10 +10086,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10142,10 +10115,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F231" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -10171,10 +10144,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G232" t="n">
         <v>6</v>
@@ -10200,10 +10173,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10229,10 +10202,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -10258,10 +10231,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -10287,10 +10260,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10316,10 +10289,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10345,10 +10318,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -10374,10 +10347,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>5</v>
@@ -10403,10 +10376,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10432,10 +10405,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10461,10 +10434,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10490,10 +10463,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F243" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10519,10 +10492,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10548,10 +10521,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F245" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10577,10 +10550,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F246" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10606,10 +10579,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F247" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G247" t="n">
         <v>3</v>
@@ -10635,10 +10608,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F248" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -10664,10 +10637,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F249" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10693,10 +10666,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F250" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10722,10 +10695,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F251" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10751,10 +10724,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F252" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10780,10 +10753,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10809,10 +10782,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10838,10 +10811,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F255" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G255" t="n">
         <v>7</v>
@@ -10867,10 +10840,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F256" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10896,10 +10869,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F257" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G257" t="n">
         <v>4</v>
@@ -10925,10 +10898,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F258" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G258" t="n">
         <v>6</v>
@@ -10954,10 +10927,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F259" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G259" t="n">
         <v>39</v>
@@ -10983,10 +10956,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F260" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G260" t="n">
         <v>4</v>
@@ -11012,10 +10985,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F261" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -11041,10 +11014,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F262" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11070,10 +11043,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F263" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -11099,10 +11072,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F264" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11128,10 +11101,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F265" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11157,10 +11130,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F266" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -11186,10 +11159,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F267" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11215,10 +11188,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F268" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11244,10 +11217,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F269" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11273,10 +11246,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F270" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11302,10 +11275,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F271" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G271" t="n">
         <v>20</v>
@@ -11331,10 +11304,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F272" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G272" t="n">
         <v>44</v>
@@ -11360,10 +11333,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F273" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G273" t="n">
         <v>69</v>
@@ -11389,10 +11362,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F274" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G274" t="n">
         <v>123</v>
@@ -11418,10 +11391,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>86</v>
+      </c>
+      <c r="F275" t="s">
         <v>87</v>
-      </c>
-      <c r="F275" t="s">
-        <v>88</v>
       </c>
       <c r="G275" t="n">
         <v>21</v>
@@ -11447,10 +11420,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F276" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11476,10 +11449,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11505,10 +11478,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11534,10 +11507,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11563,10 +11536,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>86</v>
+      </c>
+      <c r="F280" t="s">
         <v>87</v>
-      </c>
-      <c r="F280" t="s">
-        <v>88</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11592,10 +11565,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F281" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11621,10 +11594,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F282" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11650,10 +11623,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F283" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -11679,10 +11652,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F284" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -11708,10 +11681,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F285" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11737,10 +11710,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F286" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -11766,10 +11739,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F287" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G287" t="n">
         <v>11</v>
@@ -11795,10 +11768,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F288" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11824,10 +11797,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F289" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11853,10 +11826,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F290" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11882,10 +11855,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F291" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11911,10 +11884,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F292" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -11940,10 +11913,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F293" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G293" t="n">
         <v>5</v>
@@ -11969,10 +11942,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F294" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11998,10 +11971,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F295" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -12027,10 +12000,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F296" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -12056,10 +12029,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F297" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -12085,10 +12058,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F298" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -12114,10 +12087,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F299" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12143,10 +12116,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F300" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12172,10 +12145,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F301" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12201,10 +12174,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F302" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G302" t="n">
         <v>64</v>
@@ -12230,10 +12203,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F303" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12259,10 +12232,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F304" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12288,10 +12261,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F305" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G305" t="n">
         <v>3</v>
@@ -12317,10 +12290,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F306" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12346,10 +12319,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F307" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12375,10 +12348,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F308" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12404,10 +12377,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F309" t="s">
-        <v>572</v>
+        <v>328</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12433,10 +12406,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F310" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12462,10 +12435,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F311" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -12491,10 +12464,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F312" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G312" t="n">
         <v>5</v>
@@ -12520,10 +12493,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F313" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G313" t="n">
         <v>3</v>
@@ -12549,10 +12522,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F314" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12607,10 +12580,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F316" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12636,10 +12609,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F317" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12665,10 +12638,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F318" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G318" t="n">
         <v>4</v>
@@ -12694,10 +12667,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F319" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G319" t="n">
         <v>4</v>
@@ -12723,10 +12696,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F320" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12752,10 +12725,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F321" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12781,10 +12754,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F322" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12839,10 +12812,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F324" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12868,10 +12841,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F325" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12897,10 +12870,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F326" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -12926,10 +12899,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F327" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12955,10 +12928,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F328" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12984,10 +12957,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F329" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13013,10 +12986,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F330" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -13042,10 +13015,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F331" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13071,10 +13044,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F332" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13100,10 +13073,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F333" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -13129,10 +13102,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F334" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G334" t="n">
         <v>4</v>
@@ -13158,10 +13131,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F335" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13187,10 +13160,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F336" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G336" t="n">
         <v>4</v>
@@ -13216,10 +13189,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F337" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13245,10 +13218,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F338" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G338" t="n">
         <v>4</v>
@@ -13274,10 +13247,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F339" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -13303,10 +13276,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F340" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13332,10 +13305,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F341" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13361,10 +13334,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F342" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13390,10 +13363,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F343" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13419,10 +13392,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F344" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13448,10 +13421,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F345" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13477,10 +13450,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F346" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13506,10 +13479,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F347" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13535,10 +13508,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F348" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13564,10 +13537,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F349" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13593,10 +13566,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F350" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13622,10 +13595,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F351" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13651,10 +13624,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F352" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13680,10 +13653,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F353" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13709,10 +13682,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F354" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G354" t="n">
         <v>30</v>
@@ -13738,10 +13711,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F355" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13767,10 +13740,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F356" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13796,10 +13769,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F357" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13825,10 +13798,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F358" t="s">
-        <v>654</v>
+        <v>408</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13854,10 +13827,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F359" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -13883,10 +13856,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F360" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13912,10 +13885,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F361" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13941,10 +13914,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F362" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G362" t="n">
         <v>3</v>
@@ -13970,10 +13943,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F363" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G363" t="n">
         <v>17</v>
@@ -13999,10 +13972,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F364" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14028,10 +14001,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F365" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
@@ -14057,10 +14030,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F366" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14086,10 +14059,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F367" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -14115,10 +14088,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F368" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14144,10 +14117,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F369" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14173,10 +14146,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F370" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14202,10 +14175,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F371" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14231,10 +14204,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F372" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14260,10 +14233,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F373" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14289,10 +14262,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F374" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14318,10 +14291,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F375" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14347,10 +14320,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F376" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14376,10 +14349,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F377" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14405,10 +14378,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F378" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -14434,10 +14407,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F379" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G379" t="n">
         <v>3</v>
@@ -14463,10 +14436,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F380" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G380" t="n">
         <v>6</v>
@@ -14492,10 +14465,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F381" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14521,10 +14494,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F382" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14550,10 +14523,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F383" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14579,10 +14552,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F384" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14608,10 +14581,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F385" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -14637,10 +14610,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F386" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14666,10 +14639,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F387" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14695,10 +14668,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F388" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14724,10 +14697,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F389" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14753,10 +14726,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F390" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14782,10 +14755,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F391" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14811,10 +14784,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F392" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14840,10 +14813,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F393" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14869,10 +14842,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F394" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14898,10 +14871,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F395" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14927,10 +14900,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F396" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14956,10 +14929,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F397" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14985,10 +14958,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F398" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -15014,10 +14987,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F399" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15043,10 +15016,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F400" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15072,10 +15045,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F401" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15101,10 +15074,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F402" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -15130,10 +15103,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F403" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15159,10 +15132,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F404" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15188,10 +15161,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F405" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15217,10 +15190,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F406" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15246,10 +15219,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F407" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15275,10 +15248,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F408" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15304,10 +15277,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F409" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G409" t="n">
         <v>9</v>
@@ -15333,10 +15306,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F410" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G410" t="n">
         <v>12</v>
@@ -15362,10 +15335,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="F411" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -15391,10 +15364,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F412" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -15420,10 +15393,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F413" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15449,10 +15422,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F414" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15478,10 +15451,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F415" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15507,10 +15480,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F416" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15536,10 +15509,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F417" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15565,10 +15538,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F418" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -15594,10 +15567,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F419" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G419" t="n">
         <v>2</v>
@@ -15623,10 +15596,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F420" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G420" t="n">
         <v>8</v>
@@ -15652,10 +15625,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F421" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15681,10 +15654,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F422" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="G422" t="n">
         <v>4</v>
@@ -15710,10 +15683,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F423" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G423" t="n">
         <v>12</v>
@@ -15739,10 +15712,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F424" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="G424" t="n">
         <v>17</v>
@@ -15768,10 +15741,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F425" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15797,10 +15770,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F426" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15826,10 +15799,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F427" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G427" t="n">
         <v>3</v>
@@ -15855,10 +15828,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F428" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15884,10 +15857,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F429" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G429" t="n">
         <v>2</v>
@@ -15913,10 +15886,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F430" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -15942,10 +15915,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F431" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G431" t="n">
         <v>6</v>
@@ -15971,10 +15944,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F432" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16000,10 +15973,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F433" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16029,10 +16002,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F434" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -16058,10 +16031,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F435" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16087,10 +16060,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F436" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -16116,10 +16089,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="F437" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16145,10 +16118,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="F438" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="G438" t="n">
         <v>2</v>
@@ -16174,10 +16147,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="F439" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16203,10 +16176,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F440" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16232,10 +16205,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F441" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G441" t="n">
         <v>2</v>
@@ -16261,10 +16234,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F442" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16290,10 +16263,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F443" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16319,10 +16292,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="F444" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -16348,10 +16321,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F445" t="s">
-        <v>822</v>
+        <v>152</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16377,10 +16350,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F446" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16406,10 +16379,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F447" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -16435,10 +16408,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F448" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16464,10 +16437,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F449" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="G449" t="n">
         <v>2</v>
@@ -16522,10 +16495,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F451" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16551,10 +16524,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F452" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="G452" t="n">
         <v>12</v>
@@ -16580,10 +16553,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F453" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="G453" t="n">
         <v>6</v>
@@ -16609,10 +16582,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F454" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16638,10 +16611,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F455" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16667,10 +16640,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F456" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16696,10 +16669,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="F457" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16725,10 +16698,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F458" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16754,10 +16727,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F459" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -16783,10 +16756,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F460" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="G460" t="n">
         <v>3</v>
@@ -16812,10 +16785,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F461" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16841,10 +16814,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F462" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16870,10 +16843,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F463" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -16899,10 +16872,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F464" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16928,10 +16901,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F465" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16957,10 +16930,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F466" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -16986,10 +16959,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F467" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="G467" t="n">
         <v>7</v>
@@ -17015,10 +16988,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="F468" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -17044,10 +17017,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F469" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17073,10 +17046,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="F470" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="G470" t="n">
         <v>3</v>
@@ -17102,10 +17075,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="F471" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17131,10 +17104,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F472" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -17160,10 +17133,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F473" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17189,10 +17162,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="F474" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17218,10 +17191,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="F475" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17247,10 +17220,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="F476" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17276,10 +17249,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="F477" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17305,10 +17278,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="F478" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17334,10 +17307,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="F479" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17363,10 +17336,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="F480" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="G480" t="n">
         <v>3</v>
@@ -17392,10 +17365,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="F481" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17421,10 +17394,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="F482" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17450,10 +17423,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="F483" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17479,10 +17452,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F484" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17508,10 +17481,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="F485" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17537,10 +17510,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F486" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17566,10 +17539,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="F487" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17595,10 +17568,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="F488" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17624,10 +17597,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F489" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17653,10 +17626,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="F490" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17682,10 +17655,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F491" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17711,10 +17684,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="F492" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17740,10 +17713,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F493" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="G493" t="n">
         <v>9</v>
@@ -17769,10 +17742,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="F494" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="G494" t="n">
         <v>4</v>
@@ -17798,10 +17771,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="F495" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17827,10 +17800,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="F496" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17856,10 +17829,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="F497" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="G497" t="n">
         <v>3</v>
@@ -17885,10 +17858,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="F498" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="G498" t="n">
         <v>3</v>
@@ -17914,10 +17887,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="F499" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="G499" t="n">
         <v>4</v>
@@ -17943,10 +17916,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F500" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G500" t="n">
         <v>4</v>
@@ -17972,10 +17945,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="F501" t="s">
-        <v>926</v>
+        <v>114</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18001,10 +17974,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="F502" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="G502" t="n">
         <v>2</v>
@@ -18030,10 +18003,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F503" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18059,10 +18032,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F504" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18088,10 +18061,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F505" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="G505" t="n">
         <v>2</v>
@@ -18117,10 +18090,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F506" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G506" t="n">
         <v>2</v>
@@ -18146,10 +18119,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F507" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18175,10 +18148,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F508" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18204,10 +18177,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="F509" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18233,10 +18206,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
+        <v>92</v>
+      </c>
+      <c r="F510" t="s">
         <v>93</v>
-      </c>
-      <c r="F510" t="s">
-        <v>94</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18262,10 +18235,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F511" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18291,10 +18264,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F512" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18320,10 +18293,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="F513" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18349,10 +18322,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="F514" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18378,10 +18351,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F515" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18407,10 +18380,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F516" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18436,10 +18409,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F517" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18465,10 +18438,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F518" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G518" t="n">
         <v>13</v>
@@ -18494,10 +18467,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F519" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18523,10 +18496,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F520" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18552,10 +18525,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F521" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18581,10 +18554,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="F522" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="G522" t="n">
         <v>4</v>
@@ -18610,10 +18583,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="F523" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18639,10 +18612,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="F524" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18668,10 +18641,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="F525" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18697,10 +18670,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="F526" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18726,10 +18699,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F527" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18755,10 +18728,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="F528" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -18784,10 +18757,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="F529" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -18842,10 +18815,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="F531" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G531" t="n">
         <v>5</v>
@@ -18871,10 +18844,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F532" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -18900,10 +18873,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="F533" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -18929,10 +18902,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="F534" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -18958,10 +18931,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="F535" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -18987,10 +18960,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F536" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19016,10 +18989,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="F537" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19045,10 +19018,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="F538" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19074,10 +19047,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="F539" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19103,10 +19076,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="F540" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19132,10 +19105,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F541" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19161,10 +19134,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F542" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19190,10 +19163,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="F543" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19219,10 +19192,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="F544" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19248,10 +19221,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="F545" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19277,10 +19250,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F546" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19306,10 +19279,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F547" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19335,10 +19308,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F548" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="G548" t="n">
         <v>2</v>
@@ -19364,10 +19337,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="F549" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="G549" t="n">
         <v>5</v>
@@ -19393,10 +19366,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="F550" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -19422,10 +19395,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F551" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G551" t="n">
         <v>2</v>
@@ -19451,10 +19424,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="F552" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -19480,10 +19453,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="F553" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -19509,10 +19482,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="F554" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="G554" t="n">
         <v>6</v>
@@ -19538,10 +19511,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="F555" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -19567,10 +19540,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="F556" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -19596,10 +19569,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="F557" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -19625,10 +19598,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="F558" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -19654,10 +19627,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F559" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G559" t="n">
         <v>1</v>
@@ -19683,10 +19656,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="F560" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="G560" t="n">
         <v>1</v>
@@ -19712,10 +19685,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F561" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -19741,10 +19714,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F562" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -19770,10 +19743,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="F563" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -19799,10 +19772,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="F564" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="G564" t="n">
         <v>12</v>
@@ -19828,10 +19801,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="F565" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
